--- a/src/main/resources/template/SYDNEY.xlsx
+++ b/src/main/resources/template/SYDNEY.xlsx
@@ -81,15 +81,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="B1mmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="B1mmm\-yy"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -97,7 +97,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -204,11 +204,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,20 +219,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,32 +244,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -570,13 +554,13 @@
       <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="16" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="16" width="11.28515625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -981,7 +965,7 @@
       <c r="N19" s="6">
         <v>32</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="18">
         <v>0</v>
       </c>
       <c r="P19" s="6">
@@ -1031,7 +1015,7 @@
       <c r="N20" s="10">
         <v>26</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="19">
         <v>0</v>
       </c>
       <c r="P20" s="10">
@@ -1081,7 +1065,7 @@
       <c r="N21" s="10">
         <v>0</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="19">
         <v>0</v>
       </c>
       <c r="P21" s="10">
@@ -1607,7 +1591,7 @@
     <mergeCell ref="J17:L17"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
